--- a/biology/Botanique/Condesa_de_Mayalde/Condesa_de_Mayalde.xlsx
+++ b/biology/Botanique/Condesa_de_Mayalde/Condesa_de_Mayalde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Condesa de Mayalde' est un cultivar de rosier hybride de thé obtenu en 1956 en Espagne par Pedro Dot[1]. Il doit son nom à la comtesse de Mayalde née Casilda Bustos y Figueroa, épouse du maire de Madrid.
+'Condesa de Mayalde' est un cultivar de rosier hybride de thé obtenu en 1956 en Espagne par Pedro Dot. Il doit son nom à la comtesse de Mayalde née Casilda Bustos y Figueroa, épouse du maire de Madrid.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose est remarquable par son coloris blanc et fuchsia aux bords magenta ; elle fleurit généralement en solitaire. Sa floraison est remontante. La fleur compte 26 à 40 pétales[2].
-Elle est parfaite pour les fleurs à couper et illumine les plates-bandes. Vigoureuse, elle supporte les hivers froids, sa zone de rusticité étant 6b[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose est remarquable par son coloris blanc et fuchsia aux bords magenta ; elle fleurit généralement en solitaire. Sa floraison est remontante. La fleur compte 26 à 40 pétales.
+Elle est parfaite pour les fleurs à couper et illumine les plates-bandes. Vigoureuse, elle supporte les hivers froids, sa zone de rusticité étant 6b.
 'Condesa de Mayalde' est issu du croisement 'Madame Antoine Meilland' (Meilland 1935) x 'Flambée' (Mallerin 1952).
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de Madrid 1956</t>
         </is>
